--- a/TestData/ExcelData/database.xlsx
+++ b/TestData/ExcelData/database.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathrynanne\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>model</t>
   </si>
@@ -104,15 +104,33 @@
     <t>Galaxy Note8</t>
   </si>
   <si>
+    <t>6.3 inches</t>
+  </si>
+  <si>
     <t>Dual 12 MP , OIS, autofocus, 2x optical zoom, dual-LED (dual tone) flash</t>
   </si>
   <si>
     <t xml:space="preserve">iphone 8 </t>
   </si>
   <si>
+    <t>4.7 inches</t>
+  </si>
+  <si>
+    <t>64/128/256 GB + external sd card option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64/256 GB no card slot </t>
+  </si>
+  <si>
     <t>speed</t>
   </si>
   <si>
+    <t>8gb ram</t>
+  </si>
+  <si>
+    <t>2 gb ram</t>
+  </si>
+  <si>
     <t>Nokia</t>
   </si>
   <si>
@@ -122,45 +140,93 @@
     <t>Xperia XZ1</t>
   </si>
   <si>
+    <t>4 GB RAM</t>
+  </si>
+  <si>
+    <t>5.2 inches</t>
+  </si>
+  <si>
+    <t>64 GB + sd card</t>
+  </si>
+  <si>
     <t>19 MP, f/2.0, 25mm, EIS (gyro), predictive phase detection and laser autofocus, LED flash</t>
   </si>
   <si>
     <t>V30</t>
   </si>
   <si>
+    <t>6.0 inches</t>
+  </si>
+  <si>
     <t>Dual 16 MP (f/1.6, OIS, 3-axis, laser &amp; phase detection autofocus) + 13 MP (f/1.9, no AF), LED flash</t>
   </si>
   <si>
     <t>U11</t>
   </si>
   <si>
+    <t>6 GB RAM</t>
+  </si>
+  <si>
+    <t>5.5 inches</t>
+  </si>
+  <si>
     <t>12 MP, f/1.7, phase detection autofocus, OIS, dual-LED (dual tone) flash</t>
   </si>
   <si>
     <t>X4</t>
   </si>
   <si>
+    <t>3 GB RAM</t>
+  </si>
+  <si>
+    <t>64/128 GB sd card</t>
+  </si>
+  <si>
+    <t>32 GB sd card</t>
+  </si>
+  <si>
     <t>Dual 12 MP, f/2.0 + 8 MP, f/2.2, phase detection autofocus, dual-LED (dual tone) flash</t>
   </si>
   <si>
     <t>Mate 10</t>
   </si>
   <si>
+    <t>5.9 inche</t>
+  </si>
+  <si>
     <t>Dual 20 MP +12 MP, f/1.6, OIS, 2x lossless zoom, Leica optics, phase detection &amp; laser autofocus, dual-LED (dual tone) flas</t>
   </si>
   <si>
     <t>Lumia 650</t>
   </si>
   <si>
+    <t>1 GB RAM</t>
+  </si>
+  <si>
+    <t>5.0 inches,</t>
+  </si>
+  <si>
+    <t>16 GB sd card</t>
+  </si>
+  <si>
     <t>8 MP, f/2.2, 28mm, autofocus, LED flash</t>
   </si>
   <si>
+    <t>5.3 inches</t>
+  </si>
+  <si>
+    <t>64 GB/128 Gb sd card</t>
+  </si>
+  <si>
     <t>Dual 13 MP, f/2.0, laser &amp; phase detection autofocus, Carl Zeiss optics, OIS, dual-LED (dual tone) flash</t>
   </si>
   <si>
     <t>oneplus 5</t>
   </si>
   <si>
+    <t>8 GB RAM</t>
+  </si>
+  <si>
     <t>Dual 16 MP, f/1.7, 24mm, EIS (gyro) + 20 MP, f/2.6, 36mm, phase detection autofocus</t>
   </si>
   <si>
@@ -176,15 +242,33 @@
     <t>Nubia Z17s</t>
   </si>
   <si>
+    <t>5.73 inche</t>
+  </si>
+  <si>
     <t>Dual 12 MP, f/1.8 + 23 MP, f/2.0, phase detection autofocus, 2x lossless zoom, dual-LED (dual tone) flash</t>
   </si>
   <si>
     <t>MI Mix2</t>
   </si>
   <si>
+    <t> 8 GB RAM</t>
+  </si>
+  <si>
+    <t>64/128/256 GB no card slot</t>
+  </si>
+  <si>
+    <t>5.99 inches</t>
+  </si>
+  <si>
     <t>Pixel 2</t>
   </si>
   <si>
+    <t>5.0 inches</t>
+  </si>
+  <si>
+    <t>64/128 GB no card slot</t>
+  </si>
+  <si>
     <t>2 MP, f/2.0, phase detection autofocus, OIS (4-axis), dual-LED (dual tone) flash</t>
   </si>
   <si>
@@ -200,19 +284,37 @@
     <t xml:space="preserve">A77 </t>
   </si>
   <si>
+    <t> 4 GB RAM</t>
+  </si>
+  <si>
     <t>13 MP, f/2.2, phase detection autofocus, LED flash</t>
   </si>
   <si>
     <t>Grand XL</t>
   </si>
   <si>
+    <t> 2 GB RAM</t>
+  </si>
+  <si>
     <t>X20</t>
   </si>
   <si>
+    <t>64GB sd card</t>
+  </si>
+  <si>
+    <t>6.43 inches</t>
+  </si>
+  <si>
     <t>Dual 12 MP, f/1.8 + 5 MP, autofocus, LED flash</t>
   </si>
   <si>
     <t>M6 note</t>
+  </si>
+  <si>
+    <t>5.5 inche</t>
+  </si>
+  <si>
+    <t>16/32/64 GB sd card</t>
   </si>
   <si>
     <t xml:space="preserve">Dual 12 MP, f/1.9, phase detection autofocus + 5 MP, f/2.0, autofocus, quad-LED </t>
@@ -221,7 +323,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,8 +364,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,11 +645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,10 +658,10 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="110.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="110.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -567,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -575,11 +680,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -589,183 +694,183 @@
       <c r="C2" s="1">
         <v>960</v>
       </c>
-      <c r="D2" s="1">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>128</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>960</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>256</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>600</v>
       </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>500</v>
       </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1">
-        <v>64</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1">
         <v>649</v>
       </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>350</v>
       </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1">
         <v>499</v>
       </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="F8" s="1">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1">
         <v>120</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -773,270 +878,270 @@
       <c r="C10" s="1">
         <v>600</v>
       </c>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>500</v>
       </c>
-      <c r="D11" s="1">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1">
         <v>650</v>
       </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1">
         <v>350</v>
       </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1">
         <v>600</v>
       </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5.73</v>
-      </c>
-      <c r="F14" s="1">
-        <v>64</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1">
         <v>600</v>
       </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5.99</v>
-      </c>
-      <c r="F15" s="1">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1">
         <v>649</v>
       </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1">
         <v>649</v>
       </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1">
         <v>350</v>
       </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>64</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1">
         <v>120</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="F19" s="1">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1">
         <v>590</v>
       </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>6.43</v>
-      </c>
-      <c r="F20" s="1">
-        <v>64</v>
-      </c>
-      <c r="H20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1">
         <v>240</v>
       </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="F21" s="1">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>63</v>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
